--- a/data/individual tables/Thompson_2014_tbl1.xlsx
+++ b/data/individual tables/Thompson_2014_tbl1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Database Creation\Paper_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coyotesusd-my.sharepoint.com/personal/jeff_wesner_usd_edu/Documents/USD/Github Projects/TroPhish/data/individual tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFBACE-E085-425A-AAF4-BE414F3347D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{02DFBACE-E085-425A-AAF4-BE414F3347D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0574B354-62A6-4394-BDF0-998F5BA99424}"/>
   <bookViews>
-    <workbookView xWindow="27510" yWindow="-840" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32385" yWindow="2235" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -323,11 +323,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -618,7 +617,7 @@
   <dimension ref="A1:AW21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,539 +698,440 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>17</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>113</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>2014</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>10.91</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>27.89</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>41.83</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>6.72</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>3.47</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R3">
         <v>2014</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S3" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U3" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>2.78</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AE2" s="8">
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="Z3" s="7">
         <v>0.52</v>
       </c>
-      <c r="AF2" s="8">
-        <v>10.91</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>27.89</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>41.83</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>6.72</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>1.67</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="AO2" s="8">
-        <v>3.47</v>
-      </c>
-      <c r="AP2" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AS2" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="AT2" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="AU2" s="10">
+      <c r="AA3" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>19.75</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>13.84</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>23.98</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>4.67</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>10.79</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AW3" s="9">
         <v>0.2</v>
       </c>
-      <c r="AV2" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AW2" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="3">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
-        <v>113</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>100</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="3">
-        <v>2014</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>1.87</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>4.75</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>19.75</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>13.84</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>1.85</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>23.98</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>4.67</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>1.29</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>10.79</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="AT3" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="AU3" s="8">
-        <v>1.35</v>
-      </c>
-      <c r="AV3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="AW3" s="10">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="9"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="Y4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="8"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="7"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="T5" s="4"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AP5" s="6"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="8"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="T7" s="4"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="T8" s="4"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1244,24 +1144,9 @@
       <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="T9" s="4"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="2"/>
@@ -1274,24 +1159,9 @@
       <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="T10" s="4"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -1304,24 +1174,9 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="T11" s="4"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -1334,24 +1189,9 @@
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="T12" s="4"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -1364,24 +1204,9 @@
       <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="T13" s="4"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -1394,24 +1219,9 @@
       <c r="AH13" s="2"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="T14" s="4"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -1424,24 +1234,9 @@
       <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="T15" s="4"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -1454,24 +1249,9 @@
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="T16" s="4"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -1483,25 +1263,10 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+    <row r="17" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="T17" s="4"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -1513,25 +1278,10 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+    <row r="18" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="T18" s="4"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -1543,25 +1293,10 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+    <row r="19" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="T19" s="4"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -1573,25 +1308,10 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+    <row r="20" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="T20" s="4"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -1603,25 +1323,10 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+    <row r="21" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="T21" s="4"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
